--- a/HomeLyf_Services_DatabaseAutomation/Database_data/excel.xlsx
+++ b/HomeLyf_Services_DatabaseAutomation/Database_data/excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="500">
   <si>
     <t>name</t>
   </si>
@@ -806,15 +806,6 @@
     <t>$2a$08$KkG4FkNbl1g6bs23w5Z/5uu8C/hmN/iXdANqFtWR81nhhwIM9p9D.</t>
   </si>
   <si>
-    <t>suhasuni</t>
-  </si>
-  <si>
-    <t>suhasini@gmail.com</t>
-  </si>
-  <si>
-    <t>$2a$08$UngUBD.Nqsg3Ksf.aEu9Te3YHmTawqNKDls4m0UydT4LfI23A3MOO</t>
-  </si>
-  <si>
     <t>varsha</t>
   </si>
   <si>
@@ -1502,6 +1493,15 @@
     <t>Kaveri@123</t>
   </si>
   <si>
+    <t>mona</t>
+  </si>
+  <si>
+    <t>mona@gmail.com</t>
+  </si>
+  <si>
+    <t>Mona@123</t>
+  </si>
+  <si>
     <t>sanvi</t>
   </si>
   <si>
@@ -1511,13 +1511,7 @@
     <t>Sanvi@123</t>
   </si>
   <si>
-    <t>mona</t>
-  </si>
-  <si>
-    <t>mona@gmail.com</t>
-  </si>
-  <si>
-    <t>Mona@123</t>
+    <t>Suhasini@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2664,29 +2658,29 @@
     </row>
     <row r="101">
       <c r="B101" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="C101" t="s" s="0">
         <v>270</v>
       </c>
-      <c r="C101" t="s" s="0">
+      <c r="D101" t="s" s="0">
         <v>271</v>
-      </c>
-      <c r="D101" t="s" s="0">
-        <v>272</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="s" s="0">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="D102" t="s" s="0">
         <v>273</v>
-      </c>
-      <c r="D102" t="s" s="0">
-        <v>274</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="s" s="0">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>275</v>
@@ -2741,18 +2735,18 @@
     </row>
     <row r="108">
       <c r="B108" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s" s="0">
         <v>289</v>
       </c>
-      <c r="C108" t="s" s="0">
+      <c r="D108" t="s" s="0">
         <v>290</v>
-      </c>
-      <c r="D108" t="s" s="0">
-        <v>291</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="s" s="0">
-        <v>3</v>
+        <v>291</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>292</v>
@@ -2774,18 +2768,18 @@
     </row>
     <row r="111">
       <c r="B111" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s" s="0">
         <v>297</v>
       </c>
-      <c r="C111" t="s" s="0">
+      <c r="D111" t="s" s="0">
         <v>298</v>
-      </c>
-      <c r="D111" t="s" s="0">
-        <v>299</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="s" s="0">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>300</v>
@@ -2796,18 +2790,18 @@
     </row>
     <row r="113">
       <c r="B113" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="C113" t="s" s="0">
         <v>302</v>
       </c>
-      <c r="C113" t="s" s="0">
+      <c r="D113" t="s" s="0">
         <v>303</v>
-      </c>
-      <c r="D113" t="s" s="0">
-        <v>304</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="s" s="0">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>305</v>
@@ -2829,18 +2823,18 @@
     </row>
     <row r="116">
       <c r="B116" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C116" t="s" s="0">
         <v>310</v>
       </c>
-      <c r="C116" t="s" s="0">
+      <c r="D116" t="s" s="0">
         <v>311</v>
-      </c>
-      <c r="D116" t="s" s="0">
-        <v>312</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="s" s="0">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>313</v>
@@ -2851,13 +2845,13 @@
     </row>
     <row r="118">
       <c r="B118" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="C118" t="s" s="0">
         <v>315</v>
       </c>
-      <c r="C118" t="s" s="0">
+      <c r="D118" t="s" s="0">
         <v>316</v>
-      </c>
-      <c r="D118" t="s" s="0">
-        <v>317</v>
       </c>
     </row>
     <row r="119">
@@ -2865,15 +2859,15 @@
         <v>155</v>
       </c>
       <c r="C119" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="D119" t="s" s="0">
         <v>318</v>
-      </c>
-      <c r="D119" t="s" s="0">
-        <v>319</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="s" s="0">
-        <v>155</v>
+        <v>319</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>320</v>
@@ -2928,18 +2922,18 @@
     </row>
     <row r="125">
       <c r="B125" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C125" t="s" s="0">
         <v>334</v>
       </c>
-      <c r="C125" t="s" s="0">
+      <c r="D125" t="s" s="0">
         <v>335</v>
-      </c>
-      <c r="D125" t="s" s="0">
-        <v>336</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="s" s="0">
-        <v>180</v>
+        <v>336</v>
       </c>
       <c r="C126" t="s" s="0">
         <v>337</v>
@@ -2961,18 +2955,18 @@
     </row>
     <row r="128">
       <c r="B128" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C128" t="s" s="0">
         <v>342</v>
       </c>
-      <c r="C128" t="s" s="0">
+      <c r="D128" t="s" s="0">
         <v>343</v>
-      </c>
-      <c r="D128" t="s" s="0">
-        <v>344</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="s" s="0">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>345</v>
@@ -2994,18 +2988,18 @@
     </row>
     <row r="131">
       <c r="B131" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="C131" t="s" s="0">
         <v>350</v>
       </c>
-      <c r="C131" t="s" s="0">
+      <c r="D131" t="s" s="0">
         <v>351</v>
-      </c>
-      <c r="D131" t="s" s="0">
-        <v>352</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" t="s" s="0">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="C132" t="s" s="0">
         <v>353</v>
@@ -3016,43 +3010,43 @@
     </row>
     <row r="133">
       <c r="B133" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="D133" t="s" s="0">
         <v>355</v>
-      </c>
-      <c r="C133" t="s" s="0">
-        <v>356</v>
-      </c>
-      <c r="D133" t="s" s="0">
-        <v>357</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" t="s" s="0">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C134" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="D134" t="s" s="0">
         <v>356</v>
-      </c>
-      <c r="D134" t="s" s="0">
-        <v>358</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" t="s" s="0">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C135" t="s" s="0">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" t="s" s="0">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C136" t="s" s="0">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D136" t="s" s="0">
         <v>360</v>
@@ -3060,21 +3054,21 @@
     </row>
     <row r="137">
       <c r="B137" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D137" t="s" s="0">
         <v>361</v>
-      </c>
-      <c r="C137" t="s" s="0">
-        <v>362</v>
-      </c>
-      <c r="D137" t="s" s="0">
-        <v>363</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" t="s" s="0">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D138" t="s" s="0">
         <v>364</v>
@@ -3128,19 +3122,19 @@
       <c r="B143" t="s" s="0">
         <v>377</v>
       </c>
-      <c r="C143" t="s" s="0">
-        <v>378</v>
-      </c>
-      <c r="D143" t="s" s="0">
-        <v>379</v>
-      </c>
+      <c r="C143" s="0"/>
+      <c r="D143" s="0"/>
     </row>
     <row r="144">
       <c r="B144" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="D144" t="s" s="0">
         <v>380</v>
       </c>
-      <c r="C144" s="0"/>
-      <c r="D144" s="0"/>
     </row>
     <row r="145">
       <c r="B145" t="s" s="0">
@@ -3188,13 +3182,13 @@
     </row>
     <row r="149">
       <c r="B149" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C149" t="s" s="0">
         <v>393</v>
       </c>
-      <c r="C149" t="s" s="0">
+      <c r="D149" t="s" s="0">
         <v>394</v>
-      </c>
-      <c r="D149" t="s" s="0">
-        <v>395</v>
       </c>
     </row>
     <row r="150">
@@ -3202,10 +3196,10 @@
         <v>71</v>
       </c>
       <c r="C150" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="D150" t="s" s="0">
         <v>396</v>
-      </c>
-      <c r="D150" t="s" s="0">
-        <v>397</v>
       </c>
     </row>
     <row r="151">
@@ -3213,15 +3207,15 @@
         <v>71</v>
       </c>
       <c r="C151" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="D151" t="s" s="0">
         <v>398</v>
-      </c>
-      <c r="D151" t="s" s="0">
-        <v>399</v>
       </c>
     </row>
     <row r="152">
       <c r="B152" t="s" s="0">
-        <v>71</v>
+        <v>399</v>
       </c>
       <c r="C152" t="s" s="0">
         <v>400</v>
@@ -3232,24 +3226,24 @@
     </row>
     <row r="153">
       <c r="B153" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="D153" t="s" s="0">
         <v>402</v>
-      </c>
-      <c r="C153" t="s" s="0">
-        <v>403</v>
-      </c>
-      <c r="D153" t="s" s="0">
-        <v>404</v>
       </c>
     </row>
     <row r="154">
       <c r="B154" t="s" s="0">
-        <v>402</v>
+        <v>71</v>
       </c>
       <c r="C154" t="s" s="0">
         <v>403</v>
       </c>
       <c r="D154" t="s" s="0">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="155">
@@ -3257,21 +3251,21 @@
         <v>71</v>
       </c>
       <c r="C155" t="s" s="0">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156">
       <c r="B156" t="s" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>406</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="157">
@@ -3279,15 +3273,15 @@
         <v>74</v>
       </c>
       <c r="C157" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D157" t="s" s="0">
         <v>409</v>
-      </c>
-      <c r="D157" t="s" s="0">
-        <v>410</v>
       </c>
     </row>
     <row r="158">
       <c r="B158" t="s" s="0">
-        <v>74</v>
+        <v>410</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>411</v>
@@ -3298,18 +3292,18 @@
     </row>
     <row r="159">
       <c r="B159" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="C159" t="s" s="0">
         <v>413</v>
       </c>
-      <c r="C159" t="s" s="0">
+      <c r="D159" t="s" s="0">
         <v>414</v>
-      </c>
-      <c r="D159" t="s" s="0">
-        <v>415</v>
       </c>
     </row>
     <row r="160">
       <c r="B160" t="s" s="0">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="C160" t="s" s="0">
         <v>416</v>
@@ -3320,18 +3314,18 @@
     </row>
     <row r="161">
       <c r="B161" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="C161" t="s" s="0">
         <v>418</v>
       </c>
-      <c r="C161" t="s" s="0">
+      <c r="D161" t="s" s="0">
         <v>419</v>
-      </c>
-      <c r="D161" t="s" s="0">
-        <v>420</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" t="s" s="0">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>421</v>
@@ -3375,43 +3369,43 @@
     </row>
     <row r="166">
       <c r="B166" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="D166" t="s" s="0">
         <v>432</v>
-      </c>
-      <c r="C166" t="s" s="0">
-        <v>433</v>
-      </c>
-      <c r="D166" t="s" s="0">
-        <v>434</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" t="s" s="0">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C167" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="D167" t="s" s="0">
         <v>433</v>
-      </c>
-      <c r="D167" t="s" s="0">
-        <v>435</v>
       </c>
     </row>
     <row r="168">
       <c r="B168" t="s" s="0">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C168" t="s" s="0">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D168" t="s" s="0">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="169">
       <c r="B169" t="s" s="0">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C169" t="s" s="0">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D169" t="s" s="0">
         <v>437</v>
@@ -3441,29 +3435,29 @@
     </row>
     <row r="172">
       <c r="B172" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C172" t="s" s="0">
         <v>444</v>
       </c>
-      <c r="C172" t="s" s="0">
+      <c r="D172" t="s" s="0">
         <v>445</v>
-      </c>
-      <c r="D172" t="s" s="0">
-        <v>446</v>
       </c>
     </row>
     <row r="173">
       <c r="B173" t="s" s="0">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="C173" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="D173" t="s" s="0">
         <v>447</v>
-      </c>
-      <c r="D173" t="s" s="0">
-        <v>448</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" t="s" s="0">
-        <v>74</v>
+        <v>448</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>449</v>
@@ -3474,18 +3468,18 @@
     </row>
     <row r="175">
       <c r="B175" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="C175" t="s" s="0">
         <v>451</v>
       </c>
-      <c r="C175" t="s" s="0">
+      <c r="D175" t="s" s="0">
         <v>452</v>
-      </c>
-      <c r="D175" t="s" s="0">
-        <v>453</v>
       </c>
     </row>
     <row r="176">
       <c r="B176" t="s" s="0">
-        <v>294</v>
+        <v>453</v>
       </c>
       <c r="C176" t="s" s="0">
         <v>454</v>
@@ -3507,18 +3501,18 @@
     </row>
     <row r="178">
       <c r="B178" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="C178" t="s" s="0">
         <v>459</v>
       </c>
-      <c r="C178" t="s" s="0">
+      <c r="D178" t="s" s="0">
         <v>460</v>
-      </c>
-      <c r="D178" t="s" s="0">
-        <v>461</v>
       </c>
     </row>
     <row r="179">
       <c r="B179" t="s" s="0">
-        <v>258</v>
+        <v>461</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>462</v>
@@ -3529,29 +3523,29 @@
     </row>
     <row r="180">
       <c r="B180" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C180" t="s" s="0">
         <v>464</v>
       </c>
-      <c r="C180" t="s" s="0">
+      <c r="D180" t="s" s="0">
         <v>465</v>
-      </c>
-      <c r="D180" t="s" s="0">
-        <v>466</v>
       </c>
     </row>
     <row r="181">
       <c r="B181" t="s" s="0">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="C181" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="D181" t="s" s="0">
         <v>467</v>
-      </c>
-      <c r="D181" t="s" s="0">
-        <v>468</v>
       </c>
     </row>
     <row r="182">
       <c r="B182" t="s" s="0">
-        <v>294</v>
+        <v>468</v>
       </c>
       <c r="C182" t="s" s="0">
         <v>469</v>
@@ -3584,21 +3578,21 @@
     </row>
     <row r="185">
       <c r="B185" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="D185" t="s" s="0">
         <v>477</v>
-      </c>
-      <c r="C185" t="s" s="0">
-        <v>478</v>
-      </c>
-      <c r="D185" t="s" s="0">
-        <v>479</v>
       </c>
     </row>
     <row r="186">
       <c r="B186" t="s" s="0">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D186" t="s" s="0">
         <v>480</v>
@@ -3617,38 +3611,38 @@
     </row>
     <row r="188">
       <c r="B188" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="C188" t="s" s="0">
         <v>484</v>
       </c>
-      <c r="C188" t="s" s="0">
+      <c r="D188" t="s" s="0">
         <v>485</v>
       </c>
-      <c r="D188" t="s" s="0">
+    </row>
+    <row r="189">
+      <c r="B189" s="0"/>
+      <c r="C189" t="s" s="0">
         <v>486</v>
       </c>
-    </row>
-    <row r="189">
-      <c r="B189" t="s" s="0">
-        <v>484</v>
-      </c>
-      <c r="C189" t="s" s="0">
+      <c r="D189" t="s" s="0">
         <v>487</v>
       </c>
-      <c r="D189" t="s" s="0">
+    </row>
+    <row r="190">
+      <c r="B190" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C190" t="s" s="0">
         <v>488</v>
       </c>
-    </row>
-    <row r="190">
-      <c r="B190" s="0"/>
-      <c r="C190" t="s" s="0">
+      <c r="D190" t="s" s="0">
         <v>489</v>
-      </c>
-      <c r="D190" t="s" s="0">
-        <v>490</v>
       </c>
     </row>
     <row r="191">
       <c r="B191" t="s" s="0">
-        <v>45</v>
+        <v>490</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>491</v>
@@ -3680,14 +3674,12 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="0">
+      <c r="B194" s="0"/>
+      <c r="C194" t="s" s="0">
         <v>499</v>
       </c>
-      <c r="C194" t="s" s="0">
-        <v>500</v>
-      </c>
       <c r="D194" t="s" s="0">
-        <v>501</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
